--- a/src/utils/sxsyzlzq/friends/taotailang/zz_taotailang_level.xlsx
+++ b/src/utils/sxsyzlzq/friends/taotailang/zz_taotailang_level.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14625" windowHeight="12840" firstSheet="1" activeTab="2"/>
+    <workbookView windowWidth="16020" windowHeight="12015" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="蛮石" sheetId="8" r:id="rId1"/>
@@ -67,12 +67,15 @@
     <t>暴怒野人</t>
   </si>
   <si>
+    <t>无畏猎户</t>
+  </si>
+  <si>
+    <t>肥鼠晚宴</t>
+  </si>
+  <si>
     <t>活力仙人掌</t>
   </si>
   <si>
-    <t>肥鼠晚宴</t>
-  </si>
-  <si>
     <t>地洞巨獾</t>
   </si>
   <si>
@@ -127,18 +130,15 @@
     <t>破魔系教授</t>
   </si>
   <si>
+    <t>咒术系学士</t>
+  </si>
+  <si>
     <t>克隆术</t>
   </si>
   <si>
-    <t>魔像-御咒铁卫</t>
-  </si>
-  <si>
     <t>幻域秘树</t>
   </si>
   <si>
-    <t>学仆-塑钢型</t>
-  </si>
-  <si>
     <t>幻象龙</t>
   </si>
   <si>
@@ -166,24 +166,30 @@
     <t>隐秘卡等：</t>
   </si>
   <si>
-    <t>长耳庄巧姑</t>
+    <t>飓风术</t>
   </si>
   <si>
     <t>太极剑法</t>
   </si>
   <si>
+    <t>树木之怒</t>
+  </si>
+  <si>
+    <t>连击</t>
+  </si>
+  <si>
     <t>龟族僧人</t>
   </si>
   <si>
-    <t>叶幻师</t>
-  </si>
-  <si>
-    <t>连击</t>
+    <t>执剑道者</t>
   </si>
   <si>
     <t>铁山靠</t>
   </si>
   <si>
+    <t>风铃道人</t>
+  </si>
+  <si>
     <t>风卷残云</t>
   </si>
   <si>
@@ -197,12 +203,6 @@
   </si>
   <si>
     <t>泰山之力</t>
-  </si>
-  <si>
-    <t>万物之灵</t>
-  </si>
-  <si>
-    <t>灵龟神丹</t>
   </si>
   <si>
     <t>神机玄女·轩</t>
@@ -1175,7 +1175,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C31" sqref="C31"/>
@@ -1229,7 +1229,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1284,7 +1284,7 @@
       </c>
       <c r="C10" s="1">
         <f>AVERAGE(C2:C7)</f>
-        <v>17</v>
+        <v>17.1666666666667</v>
       </c>
       <c r="D10" s="2"/>
     </row>
@@ -1304,10 +1304,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C14" s="2">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1318,7 +1318,7 @@
         <v>3</v>
       </c>
       <c r="C15" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1329,7 +1329,7 @@
         <v>3</v>
       </c>
       <c r="C16" s="2">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1337,10 +1337,10 @@
         <v>15</v>
       </c>
       <c r="B17" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C17" s="2">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1348,10 +1348,10 @@
         <v>16</v>
       </c>
       <c r="B18" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C18" s="2">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1362,7 +1362,7 @@
         <v>5</v>
       </c>
       <c r="C19" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1370,10 +1370,10 @@
         <v>18</v>
       </c>
       <c r="B20" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C20" s="2">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1381,16 +1381,22 @@
         <v>19</v>
       </c>
       <c r="B21" s="2">
+        <v>6</v>
+      </c>
+      <c r="C21" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="2">
         <v>8</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C22" s="2">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="2"/>
@@ -1398,26 +1404,20 @@
       <c r="C23" s="2"/>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C24" s="2">
-        <f>AVERAGE(C13:C21)</f>
-        <v>16.5555555555556</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="3" t="s">
+      <c r="B25" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B27" s="3">
-        <v>3</v>
-      </c>
-      <c r="C27" s="3">
-        <v>13</v>
+      <c r="C25" s="2">
+        <f>AVERAGE(C13:C22)</f>
+        <v>16.4</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1425,10 +1425,10 @@
         <v>22</v>
       </c>
       <c r="B28" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C28" s="3">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1436,10 +1436,10 @@
         <v>23</v>
       </c>
       <c r="B29" s="3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C29" s="3">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1447,16 +1447,22 @@
         <v>24</v>
       </c>
       <c r="B30" s="3">
+        <v>7</v>
+      </c>
+      <c r="C30" s="3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" s="3">
         <v>8</v>
       </c>
-      <c r="C30" s="3">
+      <c r="C31" s="3">
         <v>13</v>
       </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="3"/>
@@ -1464,27 +1470,32 @@
       <c r="C32" s="3"/>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="3" t="s">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B33" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C33" s="3">
-        <f>AVERAGE(C27:C30)</f>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="4" t="s">
+      <c r="B34" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="C34" s="3">
+        <f>AVERAGE(C28:C31)</f>
+        <v>14.25</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C36" s="4">
-        <f>AVERAGE(C2:C7,C13:C21,C27:C30)</f>
-        <v>16.1578947368421</v>
+      <c r="B37" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C37" s="4">
+        <f>AVERAGE(C2:C7,C13:C22,C28:C31)</f>
+        <v>16.2</v>
       </c>
     </row>
   </sheetData>
@@ -1496,10 +1507,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1522,7 +1533,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B2" s="1">
         <v>2</v>
@@ -1533,7 +1544,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
@@ -1544,7 +1555,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B4" s="1">
         <v>2</v>
@@ -1555,7 +1566,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B5" s="1">
         <v>5</v>
@@ -1589,7 +1600,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B11" s="2">
         <v>2</v>
@@ -1600,7 +1611,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B12" s="2">
         <v>2</v>
@@ -1611,10 +1622,10 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B13" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C13" s="2">
         <v>14</v>
@@ -1622,7 +1633,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B14" s="2">
         <v>4</v>
@@ -1633,69 +1644,63 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B15" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C15" s="2">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B16" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C16" s="2">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B17" s="2">
         <v>7</v>
       </c>
       <c r="C17" s="2">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B18" s="2">
         <v>7</v>
       </c>
       <c r="C18" s="2">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B19" s="2">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C19" s="2">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B20" s="2">
-        <v>9</v>
-      </c>
-      <c r="C20" s="2">
-        <v>15</v>
-      </c>
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2"/>
@@ -1703,54 +1708,54 @@
       <c r="C21" s="2"/>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="2" t="s">
+      <c r="A22" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C23" s="2">
-        <f>AVERAGE(C11:C20)</f>
-        <v>15.6</v>
+      <c r="B22" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="2">
+        <f>AVERAGE(C11:C19)</f>
+        <v>15.7777777777778</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B25" s="3">
+        <v>5</v>
+      </c>
+      <c r="C25" s="3">
+        <v>15</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B26" s="3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C26" s="3">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B27" s="3">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C27" s="3">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B28" s="3">
-        <v>9</v>
-      </c>
-      <c r="C28" s="3">
-        <v>15</v>
-      </c>
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="3"/>
@@ -1758,32 +1763,27 @@
       <c r="C29" s="3"/>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="3" t="s">
+      <c r="A30" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B31" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C31" s="3">
-        <f>AVERAGE(C26:C28)</f>
+      <c r="B30" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" s="3">
+        <f>AVERAGE(C25:C27)</f>
         <v>14.6666666666667</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B34" s="4" t="s">
+    <row r="33" spans="1:3">
+      <c r="A33" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B33" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C34" s="4">
-        <f>AVERAGE(C2:C5,C11:C20,C26:C28)</f>
-        <v>15.5294117647059</v>
+      <c r="C33" s="4">
+        <f>AVERAGE(C2:C5,C11:C19,C25:C27)</f>
+        <v>15.625</v>
       </c>
     </row>
   </sheetData>
@@ -1797,8 +1797,8 @@
   <sheetPr/>
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C23:C24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A21" sqref="$A21:$XFD21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1846,10 +1846,10 @@
         <v>47</v>
       </c>
       <c r="B4" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" s="1">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1860,12 +1860,12 @@
         <v>3</v>
       </c>
       <c r="C5" s="1">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B6" s="1">
         <v>3</v>
@@ -1893,7 +1893,7 @@
         <v>3</v>
       </c>
       <c r="C8" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1901,63 +1901,63 @@
         <v>51</v>
       </c>
       <c r="B9" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C9" s="1">
         <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
+      <c r="A10" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" s="1">
+        <v>4</v>
+      </c>
+      <c r="C10" s="1">
+        <v>12</v>
+      </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="1" t="s">
+      <c r="A11" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" s="1">
+        <v>4</v>
+      </c>
+      <c r="C11" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="1">
-        <f>AVERAGE(C2:C9)</f>
-        <v>12.875</v>
-      </c>
-      <c r="D12" s="2"/>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B15" s="2">
-        <v>3</v>
-      </c>
-      <c r="C15" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B16" s="2">
-        <v>3</v>
-      </c>
-      <c r="C16" s="2">
-        <v>12</v>
-      </c>
+      <c r="C14" s="1">
+        <f>AVERAGE(C2:C11)</f>
+        <v>12.9</v>
+      </c>
+      <c r="D14" s="2"/>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
         <v>54</v>
       </c>
       <c r="B17" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C17" s="2">
         <v>13</v>
@@ -1968,7 +1968,7 @@
         <v>55</v>
       </c>
       <c r="B18" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C18" s="2">
         <v>12</v>
@@ -1979,16 +1979,22 @@
         <v>56</v>
       </c>
       <c r="B19" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C19" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B20" s="2">
+        <v>4</v>
+      </c>
+      <c r="C20" s="2">
         <v>12</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2"/>
@@ -1996,26 +2002,20 @@
       <c r="C21" s="2"/>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C22" s="2">
-        <f>AVERAGE(C15:C19)</f>
-        <v>12.4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B25" s="3">
-        <v>3</v>
-      </c>
-      <c r="C25" s="3">
-        <v>12</v>
+      <c r="B23" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" s="2">
+        <f>AVERAGE(C17:C20)</f>
+        <v>12.5</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -2058,23 +2058,23 @@
         <v>9</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C30" s="3">
-        <f>AVERAGE(C25:C27)</f>
+        <f>AVERAGE(C26:C27)</f>
         <v>12</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>60</v>
       </c>
       <c r="C33" s="4">
-        <f>AVERAGE(C2:C9,C15:C19,C25:C27)</f>
-        <v>12.5625</v>
+        <f>AVERAGE(C2:C11,C17:C20,C26:C27)</f>
+        <v>12.6875</v>
       </c>
     </row>
   </sheetData>

--- a/src/utils/sxsyzlzq/friends/taotailang/zz_taotailang_level.xlsx
+++ b/src/utils/sxsyzlzq/friends/taotailang/zz_taotailang_level.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16020" windowHeight="12015" firstSheet="1" activeTab="1"/>
+    <workbookView windowWidth="15375" windowHeight="10515" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="蛮石" sheetId="8" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="62">
   <si>
     <t>名称</t>
   </si>
@@ -137,6 +137,9 @@
   </si>
   <si>
     <t>幻域秘树</t>
+  </si>
+  <si>
+    <t>学仆-塑钢型</t>
   </si>
   <si>
     <t>幻象龙</t>
@@ -1178,7 +1181,7 @@
   <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1240,7 +1243,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1284,7 +1287,7 @@
       </c>
       <c r="C10" s="1">
         <f>AVERAGE(C2:C7)</f>
-        <v>17.1666666666667</v>
+        <v>17.3333333333333</v>
       </c>
       <c r="D10" s="2"/>
     </row>
@@ -1395,7 +1398,7 @@
         <v>8</v>
       </c>
       <c r="C22" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1417,7 +1420,7 @@
       </c>
       <c r="C25" s="2">
         <f>AVERAGE(C13:C22)</f>
-        <v>16.4</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1461,7 +1464,7 @@
         <v>8</v>
       </c>
       <c r="C31" s="3">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1483,7 +1486,7 @@
       </c>
       <c r="C34" s="3">
         <f>AVERAGE(C28:C31)</f>
-        <v>14.25</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1495,7 +1498,7 @@
       </c>
       <c r="C37" s="4">
         <f>AVERAGE(C2:C7,C13:C22,C28:C31)</f>
-        <v>16.2</v>
+        <v>16.35</v>
       </c>
     </row>
   </sheetData>
@@ -1507,10 +1510,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1550,7 +1553,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1594,7 +1597,7 @@
       </c>
       <c r="C8" s="1">
         <f>AVERAGE(C2:C5)</f>
-        <v>16</v>
+        <v>16.25</v>
       </c>
       <c r="D8" s="2"/>
     </row>
@@ -1639,7 +1642,7 @@
         <v>4</v>
       </c>
       <c r="C14" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1647,10 +1650,10 @@
         <v>36</v>
       </c>
       <c r="B15" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C15" s="2">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1658,10 +1661,10 @@
         <v>37</v>
       </c>
       <c r="B16" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C16" s="2">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1672,7 +1675,7 @@
         <v>7</v>
       </c>
       <c r="C17" s="2">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1683,7 +1686,7 @@
         <v>7</v>
       </c>
       <c r="C18" s="2">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1691,16 +1694,22 @@
         <v>40</v>
       </c>
       <c r="B19" s="2">
+        <v>7</v>
+      </c>
+      <c r="C19" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" s="2">
         <v>9</v>
       </c>
-      <c r="C19" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
+      <c r="C20" s="2">
+        <v>16</v>
+      </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2"/>
@@ -1708,26 +1717,20 @@
       <c r="C21" s="2"/>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B23" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="2">
-        <f>AVERAGE(C11:C19)</f>
-        <v>15.7777777777778</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B25" s="3">
-        <v>5</v>
-      </c>
-      <c r="C25" s="3">
-        <v>15</v>
+      <c r="C23" s="2">
+        <f>AVERAGE(C11:C20)</f>
+        <v>15.8</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1735,10 +1738,10 @@
         <v>42</v>
       </c>
       <c r="B26" s="3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C26" s="3">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1746,16 +1749,22 @@
         <v>43</v>
       </c>
       <c r="B27" s="3">
+        <v>7</v>
+      </c>
+      <c r="C27" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B28" s="3">
         <v>9</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C28" s="3">
         <v>15</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="3"/>
@@ -1763,27 +1772,32 @@
       <c r="C29" s="3"/>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B31" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C30" s="3">
-        <f>AVERAGE(C25:C27)</f>
-        <v>14.6666666666667</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="4" t="s">
+      <c r="C31" s="3">
+        <f>AVERAGE(C26:C28)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B33" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C33" s="4">
-        <f>AVERAGE(C2:C5,C11:C19,C25:C27)</f>
-        <v>15.625</v>
+      <c r="B34" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C34" s="4">
+        <f>AVERAGE(C2:C5,C11:C20,C26:C28)</f>
+        <v>15.7647058823529</v>
       </c>
     </row>
   </sheetData>
@@ -1798,7 +1812,7 @@
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="$A21:$XFD21"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1821,7 +1835,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B2" s="1">
         <v>2</v>
@@ -1832,7 +1846,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
@@ -1843,7 +1857,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B4" s="1">
         <v>2</v>
@@ -1854,7 +1868,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B5" s="1">
         <v>3</v>
@@ -1865,7 +1879,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B6" s="1">
         <v>3</v>
@@ -1876,7 +1890,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B7" s="1">
         <v>3</v>
@@ -1887,7 +1901,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B8" s="1">
         <v>3</v>
@@ -1898,7 +1912,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B9" s="1">
         <v>3</v>
@@ -1909,7 +1923,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B10" s="1">
         <v>4</v>
@@ -1920,7 +1934,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B11" s="1">
         <v>4</v>
@@ -1954,7 +1968,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B17" s="2">
         <v>3</v>
@@ -1965,7 +1979,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B18" s="2">
         <v>3</v>
@@ -1976,18 +1990,18 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B19" s="2">
         <v>4</v>
       </c>
       <c r="C19" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B20" s="2">
         <v>4</v>
@@ -2015,12 +2029,12 @@
       </c>
       <c r="C23" s="2">
         <f>AVERAGE(C17:C20)</f>
-        <v>12.5</v>
+        <v>12.75</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B26" s="3">
         <v>4</v>
@@ -2031,7 +2045,7 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B27" s="3">
         <v>4</v>
@@ -2070,11 +2084,11 @@
         <v>27</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C33" s="4">
         <f>AVERAGE(C2:C11,C17:C20,C26:C27)</f>
-        <v>12.6875</v>
+        <v>12.75</v>
       </c>
     </row>
   </sheetData>

--- a/src/utils/sxsyzlzq/friends/taotailang/zz_taotailang_level.xlsx
+++ b/src/utils/sxsyzlzq/friends/taotailang/zz_taotailang_level.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15375" windowHeight="10515" firstSheet="1" activeTab="1"/>
+    <workbookView windowWidth="10890" windowHeight="9900" firstSheet="1"/>
   </bookViews>
   <sheets>
     <sheet name="蛮石" sheetId="8" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="60">
   <si>
     <t>名称</t>
   </si>
@@ -118,30 +118,27 @@
     <t>蛮石卡等：</t>
   </si>
   <si>
-    <t>学仆-观测型</t>
-  </si>
-  <si>
     <t>沉重否定</t>
   </si>
   <si>
+    <t>全数否定</t>
+  </si>
+  <si>
+    <t>学仆-魔蛛型</t>
+  </si>
+  <si>
     <t>学仆-能源型</t>
   </si>
   <si>
     <t>破魔系教授</t>
   </si>
   <si>
-    <t>咒术系学士</t>
-  </si>
-  <si>
     <t>克隆术</t>
   </si>
   <si>
     <t>幻域秘树</t>
   </si>
   <si>
-    <t>学仆-塑钢型</t>
-  </si>
-  <si>
     <t>幻象龙</t>
   </si>
   <si>
@@ -149,9 +146,6 @@
   </si>
   <si>
     <t>睿智史芬斯</t>
-  </si>
-  <si>
-    <t>心灵操控</t>
   </si>
   <si>
     <t>魔像-钢翼仲裁者</t>
@@ -1180,7 +1174,7 @@
   <sheetPr/>
   <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
@@ -1510,10 +1504,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1542,18 +1536,18 @@
         <v>2</v>
       </c>
       <c r="C2" s="1">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
       </c>
       <c r="C3" s="1">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1561,10 +1555,10 @@
         <v>30</v>
       </c>
       <c r="B4" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" s="1">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1572,45 +1566,45 @@
         <v>31</v>
       </c>
       <c r="B5" s="1">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="1">
         <v>5</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C6" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="1">
-        <f>AVERAGE(C2:C5)</f>
-        <v>16.25</v>
-      </c>
-      <c r="D8" s="2"/>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B11" s="2">
-        <v>2</v>
-      </c>
-      <c r="C11" s="2">
-        <v>15</v>
-      </c>
+      <c r="C9" s="1">
+        <f>AVERAGE(C2:C6)</f>
+        <v>16.4</v>
+      </c>
+      <c r="D9" s="2"/>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="2" t="s">
@@ -1620,7 +1614,7 @@
         <v>2</v>
       </c>
       <c r="C12" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1650,10 +1644,10 @@
         <v>36</v>
       </c>
       <c r="B15" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C15" s="2">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1661,10 +1655,10 @@
         <v>37</v>
       </c>
       <c r="B16" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C16" s="2">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1675,7 +1669,7 @@
         <v>7</v>
       </c>
       <c r="C17" s="2">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1683,54 +1677,54 @@
         <v>39</v>
       </c>
       <c r="B18" s="2">
+        <v>9</v>
+      </c>
+      <c r="C18" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="2">
+        <f>AVERAGE(C12:C18)</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" s="3">
+        <v>5</v>
+      </c>
+      <c r="C24" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B25" s="3">
         <v>7</v>
       </c>
-      <c r="C18" s="2">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B19" s="2">
-        <v>7</v>
-      </c>
-      <c r="C19" s="2">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B20" s="2">
-        <v>9</v>
-      </c>
-      <c r="C20" s="2">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C23" s="2">
-        <f>AVERAGE(C11:C20)</f>
-        <v>15.8</v>
+      <c r="C25" s="3">
+        <v>15</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1738,66 +1732,44 @@
         <v>42</v>
       </c>
       <c r="B26" s="3">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C26" s="3">
         <v>16</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" s="3">
+        <f>AVERAGE(C24:C26)</f>
+        <v>15.6666666666667</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B32" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B27" s="3">
-        <v>7</v>
-      </c>
-      <c r="C27" s="3">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B28" s="3">
-        <v>9</v>
-      </c>
-      <c r="C28" s="3">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C31" s="3">
-        <f>AVERAGE(C26:C28)</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C34" s="4">
-        <f>AVERAGE(C2:C5,C11:C20,C26:C28)</f>
-        <v>15.7647058823529</v>
+      <c r="C32" s="4">
+        <f>AVERAGE(C2:C6,C12:C18,C24:C26)</f>
+        <v>16.5333333333333</v>
       </c>
     </row>
   </sheetData>
@@ -1835,7 +1807,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B2" s="1">
         <v>2</v>
@@ -1846,7 +1818,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
@@ -1857,7 +1829,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B4" s="1">
         <v>2</v>
@@ -1868,7 +1840,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B5" s="1">
         <v>3</v>
@@ -1879,7 +1851,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B6" s="1">
         <v>3</v>
@@ -1890,7 +1862,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B7" s="1">
         <v>3</v>
@@ -1901,7 +1873,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B8" s="1">
         <v>3</v>
@@ -1912,7 +1884,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B9" s="1">
         <v>3</v>
@@ -1923,7 +1895,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B10" s="1">
         <v>4</v>
@@ -1934,7 +1906,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B11" s="1">
         <v>4</v>
@@ -1968,7 +1940,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B17" s="2">
         <v>3</v>
@@ -1979,7 +1951,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B18" s="2">
         <v>3</v>
@@ -1990,7 +1962,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B19" s="2">
         <v>4</v>
@@ -2001,7 +1973,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B20" s="2">
         <v>4</v>
@@ -2034,7 +2006,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B26" s="3">
         <v>4</v>
@@ -2045,7 +2017,7 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B27" s="3">
         <v>4</v>
@@ -2084,7 +2056,7 @@
         <v>27</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C33" s="4">
         <f>AVERAGE(C2:C11,C17:C20,C26:C27)</f>

--- a/src/utils/sxsyzlzq/friends/taotailang/zz_taotailang_level.xlsx
+++ b/src/utils/sxsyzlzq/friends/taotailang/zz_taotailang_level.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="10890" windowHeight="9900" firstSheet="1"/>
+    <workbookView windowWidth="10725" windowHeight="11385" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="蛮石" sheetId="8" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="63">
   <si>
     <t>名称</t>
   </si>
@@ -46,7 +46,7 @@
     <t>势如破竹</t>
   </si>
   <si>
-    <t>蓄力射手</t>
+    <t>面包树</t>
   </si>
   <si>
     <t>天降碎石</t>
@@ -55,9 +55,6 @@
     <t>强行捕猎</t>
   </si>
   <si>
-    <t>生命源力</t>
-  </si>
-  <si>
     <t>小计：</t>
   </si>
   <si>
@@ -85,9 +82,6 @@
     <t>飞斧女豪</t>
   </si>
   <si>
-    <t>石斧头领</t>
-  </si>
-  <si>
     <t>源力苏醒</t>
   </si>
   <si>
@@ -136,9 +130,18 @@
     <t>克隆术</t>
   </si>
   <si>
+    <t>传记·海市蜃楼·蛇</t>
+  </si>
+  <si>
+    <t>魔像-御咒铁卫</t>
+  </si>
+  <si>
     <t>幻域秘树</t>
   </si>
   <si>
+    <t>学仆-塑钢型</t>
+  </si>
+  <si>
     <t>幻象龙</t>
   </si>
   <si>
@@ -151,6 +154,9 @@
     <t>魔像-钢翼仲裁者</t>
   </si>
   <si>
+    <t>No.4希尔伯特</t>
+  </si>
+  <si>
     <t>No.2时光·米拉</t>
   </si>
   <si>
@@ -163,43 +169,46 @@
     <t>隐秘卡等：</t>
   </si>
   <si>
+    <t>长耳庄巧姑</t>
+  </si>
+  <si>
     <t>飓风术</t>
   </si>
   <si>
     <t>太极剑法</t>
   </si>
   <si>
-    <t>树木之怒</t>
-  </si>
-  <si>
     <t>连击</t>
   </si>
   <si>
     <t>龟族僧人</t>
   </si>
   <si>
-    <t>执剑道者</t>
+    <t>叶幻师</t>
   </si>
   <si>
     <t>铁山靠</t>
   </si>
   <si>
-    <t>风铃道人</t>
-  </si>
-  <si>
     <t>风卷残云</t>
   </si>
   <si>
     <t>驱魔道人</t>
   </si>
   <si>
-    <t>扫叶僧</t>
-  </si>
-  <si>
     <t>御风武者</t>
   </si>
   <si>
+    <t>墨轩隐士</t>
+  </si>
+  <si>
     <t>泰山之力</t>
+  </si>
+  <si>
+    <t>万物之灵</t>
+  </si>
+  <si>
+    <t>灵龟神丹</t>
   </si>
   <si>
     <t>神机玄女·轩</t>
@@ -1172,10 +1181,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1204,62 +1213,62 @@
         <v>2</v>
       </c>
       <c r="C2" s="1">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
       </c>
       <c r="C3" s="1">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" s="1">
         <v>2</v>
       </c>
       <c r="C4" s="1">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" s="1">
         <v>3</v>
       </c>
       <c r="C5" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6" s="1">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" s="1">
         <v>4</v>
       </c>
       <c r="C7" s="1">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1274,20 +1283,20 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="C10" s="1">
         <f>AVERAGE(C2:C7)</f>
-        <v>17.3333333333333</v>
+        <v>19</v>
       </c>
       <c r="D10" s="2"/>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13" s="2">
         <v>2</v>
@@ -1298,7 +1307,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14" s="2">
         <v>2</v>
@@ -1309,91 +1318,85 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15" s="2">
         <v>3</v>
       </c>
       <c r="C15" s="2">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B16" s="2">
         <v>3</v>
       </c>
       <c r="C16" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B17" s="2">
         <v>3</v>
       </c>
       <c r="C17" s="2">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B18" s="2">
         <v>4</v>
       </c>
       <c r="C18" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B19" s="2">
         <v>5</v>
       </c>
       <c r="C19" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="2">
+        <v>6</v>
+      </c>
+      <c r="C20" s="2">
         <v>18</v>
-      </c>
-      <c r="B20" s="2">
-        <v>5</v>
-      </c>
-      <c r="C20" s="2">
-        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B21" s="2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C21" s="2">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" s="2">
-        <v>8</v>
-      </c>
-      <c r="C22" s="2">
-        <v>20</v>
-      </c>
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="2"/>
@@ -1401,65 +1404,65 @@
       <c r="C23" s="2"/>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C25" s="2">
-        <f>AVERAGE(C13:C22)</f>
-        <v>16.5</v>
+      <c r="A24" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" s="2">
+        <f>AVERAGE(C13:C21)</f>
+        <v>17.7777777777778</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B27" s="3">
+        <v>3</v>
+      </c>
+      <c r="C27" s="3">
+        <v>14</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B28" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C28" s="3">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B29" s="3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C29" s="3">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B30" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" s="3">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B31" s="3">
-        <v>8</v>
-      </c>
-      <c r="C31" s="3">
-        <v>14</v>
-      </c>
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="3"/>
@@ -1467,32 +1470,27 @@
       <c r="C32" s="3"/>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="3"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B34" s="3" t="s">
+      <c r="A33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C33" s="3">
+        <f>AVERAGE(C27:C30)</f>
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C34" s="3">
-        <f>AVERAGE(C28:C31)</f>
-        <v>14.5</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C37" s="4">
-        <f>AVERAGE(C2:C7,C13:C22,C28:C31)</f>
-        <v>16.35</v>
+      <c r="C36" s="4">
+        <f>AVERAGE(C2:C7,C13:C21,C27:C30)</f>
+        <v>17.6842105263158</v>
       </c>
     </row>
   </sheetData>
@@ -1504,10 +1502,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1530,7 +1528,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B2" s="1">
         <v>2</v>
@@ -1541,7 +1539,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
@@ -1552,18 +1550,18 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B4" s="1">
         <v>3</v>
       </c>
       <c r="C4" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B5" s="1">
         <v>4</v>
@@ -1574,13 +1572,13 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B6" s="1">
         <v>5</v>
       </c>
       <c r="C6" s="1">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1595,20 +1593,20 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="C9" s="1">
         <f>AVERAGE(C2:C6)</f>
-        <v>16.4</v>
+        <v>17</v>
       </c>
       <c r="D9" s="2"/>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B12" s="2">
         <v>2</v>
@@ -1619,157 +1617,201 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B13" s="2">
         <v>2</v>
       </c>
       <c r="C13" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B14" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C14" s="2">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B15" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C15" s="2">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B16" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C16" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B17" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C17" s="2">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="2">
+        <v>6</v>
+      </c>
+      <c r="C18" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="2">
+        <v>7</v>
+      </c>
+      <c r="C19" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B18" s="2">
-        <v>9</v>
-      </c>
-      <c r="C18" s="2">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
+      <c r="B20" s="2">
+        <v>7</v>
+      </c>
+      <c r="C20" s="2">
+        <v>18</v>
+      </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="2">
         <v>9</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="C21" s="2">
-        <f>AVERAGE(C12:C18)</f>
-        <v>17</v>
-      </c>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B24" s="3">
+      <c r="A24" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" s="2">
+        <f>AVERAGE(C12:C21)</f>
+        <v>16.7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B27" s="3">
+        <v>2</v>
+      </c>
+      <c r="C27" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B28" s="3">
         <v>5</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C28" s="3">
         <v>16</v>
       </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B25" s="3">
-        <v>7</v>
-      </c>
-      <c r="C25" s="3">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B26" s="3">
-        <v>9</v>
-      </c>
-      <c r="C26" s="3">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B29" s="3">
+        <v>7</v>
+      </c>
+      <c r="C29" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B30" s="3">
         <v>9</v>
       </c>
-      <c r="B29" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C29" s="3">
-        <f>AVERAGE(C24:C26)</f>
-        <v>15.6666666666667</v>
-      </c>
+      <c r="C30" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C32" s="4">
-        <f>AVERAGE(C2:C6,C12:C18,C24:C26)</f>
-        <v>16.5333333333333</v>
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C33" s="3">
+        <f>AVERAGE(C27:C30)</f>
+        <v>15.25</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C36" s="4">
+        <f>AVERAGE(C2:C6,C12:C21,C27:C30)</f>
+        <v>16.4736842105263</v>
       </c>
     </row>
   </sheetData>
@@ -1781,13 +1823,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="16.375" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
@@ -1807,7 +1849,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B2" s="1">
         <v>2</v>
@@ -1818,7 +1860,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
@@ -1829,7 +1871,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B4" s="1">
         <v>2</v>
@@ -1840,7 +1882,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B5" s="1">
         <v>3</v>
@@ -1851,7 +1893,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B6" s="1">
         <v>3</v>
@@ -1862,29 +1904,29 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B7" s="1">
         <v>3</v>
       </c>
       <c r="C7" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B8" s="1">
         <v>3</v>
       </c>
       <c r="C8" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B9" s="1">
         <v>3</v>
@@ -1895,7 +1937,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B10" s="1">
         <v>4</v>
@@ -1905,56 +1947,56 @@
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B11" s="1">
-        <v>4</v>
-      </c>
-      <c r="C11" s="1">
-        <v>12</v>
-      </c>
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="1" t="s">
+    <row r="13" spans="1:4">
+      <c r="A13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="1">
-        <f>AVERAGE(C2:C11)</f>
-        <v>12.9</v>
-      </c>
-      <c r="D14" s="2"/>
+      <c r="C13" s="1">
+        <f>AVERAGE(C2:C10)</f>
+        <v>13</v>
+      </c>
+      <c r="D13" s="2"/>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" s="2">
+        <v>3</v>
+      </c>
+      <c r="C16" s="2">
+        <v>14</v>
+      </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B17" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C17" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B18" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C18" s="2">
         <v>12</v>
@@ -1962,21 +2004,21 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B19" s="2">
         <v>4</v>
       </c>
       <c r="C19" s="2">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B20" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C20" s="2">
         <v>12</v>
@@ -1994,22 +2036,22 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C23" s="2">
-        <f>AVERAGE(C17:C20)</f>
-        <v>12.75</v>
+        <f>AVERAGE(C16:C20)</f>
+        <v>12.8</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B26" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C26" s="3">
         <v>12</v>
@@ -2017,7 +2059,7 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B27" s="3">
         <v>4</v>
@@ -2026,12 +2068,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="E28">
-        <v>9</v>
+    <row r="28" spans="1:3">
+      <c r="A28" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B28" s="3">
+        <v>4</v>
+      </c>
+      <c r="C28" s="3">
+        <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -2040,27 +2085,32 @@
       <c r="C29" s="3"/>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C30" s="3">
-        <f>AVERAGE(C26:C27)</f>
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C31" s="3">
+        <f>AVERAGE(C26:C28)</f>
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C33" s="4">
-        <f>AVERAGE(C2:C11,C17:C20,C26:C27)</f>
-        <v>12.75</v>
+    <row r="34" spans="1:3">
+      <c r="A34" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C34" s="4">
+        <f>AVERAGE(C2:C10,C16:C20,C26:C28)</f>
+        <v>12.7647058823529</v>
       </c>
     </row>
   </sheetData>
